--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3890.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3890.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.106457459589083</v>
+        <v>1.707388877868652</v>
       </c>
       <c r="B1">
-        <v>2.173836232315678</v>
+        <v>2.4711594581604</v>
       </c>
       <c r="C1">
-        <v>2.166450488968607</v>
+        <v>4.661949634552002</v>
       </c>
       <c r="D1">
-        <v>2.702620098031966</v>
+        <v>4.173670768737793</v>
       </c>
       <c r="E1">
-        <v>4.032252479986369</v>
+        <v>1.159024834632874</v>
       </c>
     </row>
   </sheetData>
